--- a/assets/data/books.xlsx
+++ b/assets/data/books.xlsx
@@ -5,27 +5,28 @@
   <fileSharing readOnlyRecommended="0" userName="teisha"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId4"/>
     <sheet name="People" sheetId="2" r:id="rId5"/>
-    <sheet name="Transactions" sheetId="3" r:id="rId6"/>
+    <sheet name="Credits" sheetId="3" r:id="rId6"/>
+    <sheet name="Transactions" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1581911735" val="973" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1581911735" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1581911735" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1581911735"/>
+      <pm:revision xmlns:pm="smNativeData" day="1581923393" val="973" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1581923393" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1581923393" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1581923393"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7861" uniqueCount="7428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8635" uniqueCount="7441">
   <si>
     <t>asin</t>
   </si>
@@ -22879,13 +22880,52 @@
     <t>mtieu@example.com</t>
   </si>
   <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>dateIssued</t>
+  </si>
+  <si>
+    <t>ISSUED</t>
+  </si>
+  <si>
+    <t>REDEEMED</t>
+  </si>
+  <si>
+    <t>NEXT</t>
+  </si>
+  <si>
+    <t>05-MAR-2020</t>
+  </si>
+  <si>
+    <t>17-MAR-2020</t>
+  </si>
+  <si>
+    <t>23-FEB-2020</t>
+  </si>
+  <si>
+    <t>28-FEB-2020</t>
+  </si>
+  <si>
+    <t>01-MAR-2020</t>
+  </si>
+  <si>
+    <t>04-MAR-2020</t>
+  </si>
+  <si>
+    <t>09-MAR-2020</t>
+  </si>
+  <si>
+    <t>11-MAR-2020</t>
+  </si>
+  <si>
     <t>asin</t>
   </si>
   <si>
     <t>purchase_date</t>
-  </si>
-  <si>
-    <t>person</t>
   </si>
   <si>
     <t>B00R1WA92O</t>
@@ -23387,7 +23427,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581911735" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1581923393" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -23402,7 +23442,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581911735" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1581923393" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -23411,15 +23451,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1581923393" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -23435,7 +23486,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1581911735"/>
+          <pm:border xmlns:pm="smNativeData" id="1581923393"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1581923393"/>
         </ext>
       </extLst>
     </border>
@@ -23452,7 +23522,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1581911735" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1581923393" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -23718,11 +23788,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O595"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:O1"/>
+    <sheetView view="normal" topLeftCell="E284" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57:I305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
+  <cols>
+    <col min="2" max="2" width="19.065574" customWidth="1"/>
+    <col min="9" max="9" width="31.606557" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -46632,7 +46706,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1581911735" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1581923393" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -46641,16 +46715,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1581911735" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1581911735" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581911735" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581911735" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581911735" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581923393" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -46663,8 +46737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="16.60"/>
@@ -46802,7 +46876,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1581911735" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1581923393" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -46811,16 +46885,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1581911735" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1581911735" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581911735" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581911735" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581911735" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581923393" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -46831,10 +46905,2892 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C258"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="16.60"/>
+  <cols>
+    <col min="3" max="3" width="13.196721" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7266</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7267</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C9" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C10" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C12" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C13" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C14" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C15" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C16" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C17" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C18" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C19" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C21" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C22" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C23" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C24" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C25" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C26" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C209" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C211" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C212" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C219" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C228" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C230" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C231" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C234" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C235" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C236" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C239" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C241" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C243" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C245" t="s">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>7242</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C251" t="s">
+        <v>7272</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>7245</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C252" t="s">
+        <v>7273</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>7248</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C253" t="s">
+        <v>7274</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C254" t="s">
+        <v>7275</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>7254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C255" t="s">
+        <v>7276</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>7257</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C256" t="s">
+        <v>7277</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>7260</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C257" t="s">
+        <v>7278</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>7263</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7271</v>
+      </c>
+      <c r="C258" t="s">
+        <v>7279</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1581923393" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="1.000000" right="1.000000" top="1.000000" bottom="1.000000" header="0.393750" footer="0.393750"/>
+  <pageSetup paperSize="1" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="1" type="0" value="0"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581923393" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E595"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView view="normal" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="16.60"/>
@@ -46846,2122 +49802,2122 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>7280</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7281</v>
+      </c>
+      <c r="C1" t="s">
         <v>7266</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7267</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7268</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7269</v>
+        <v>7282</v>
       </c>
       <c r="B2" t="s">
-        <v>7270</v>
+        <v>7283</v>
       </c>
       <c r="C2" t="s">
         <v>7242</v>
       </c>
       <c r="D2" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7269</v>
+        <v>7282</v>
       </c>
       <c r="B3" t="s">
-        <v>7272</v>
+        <v>7285</v>
       </c>
       <c r="C3" t="s">
         <v>7245</v>
       </c>
       <c r="D3" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7269</v>
+        <v>7282</v>
       </c>
       <c r="B4" t="s">
-        <v>7273</v>
+        <v>7286</v>
       </c>
       <c r="C4" t="s">
         <v>7251</v>
       </c>
       <c r="D4" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7269</v>
+        <v>7282</v>
       </c>
       <c r="B5" t="s">
-        <v>7274</v>
+        <v>7287</v>
       </c>
       <c r="C5" t="s">
         <v>7257</v>
       </c>
       <c r="D5" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7275</v>
+        <v>7288</v>
       </c>
       <c r="B6" t="s">
-        <v>7276</v>
+        <v>7289</v>
       </c>
       <c r="C6" t="s">
         <v>7242</v>
       </c>
       <c r="D6" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7277</v>
+        <v>7290</v>
       </c>
       <c r="B7" t="s">
-        <v>7278</v>
+        <v>7291</v>
       </c>
       <c r="C7" t="s">
         <v>7248</v>
       </c>
       <c r="D7" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7279</v>
+        <v>7292</v>
       </c>
       <c r="B8" t="s">
-        <v>7280</v>
+        <v>7293</v>
       </c>
       <c r="C8" t="s">
         <v>7242</v>
       </c>
       <c r="D8" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7279</v>
+        <v>7292</v>
       </c>
       <c r="B9" t="s">
-        <v>7281</v>
+        <v>7294</v>
       </c>
       <c r="C9" t="s">
         <v>7248</v>
       </c>
       <c r="D9" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7279</v>
+        <v>7292</v>
       </c>
       <c r="B10" t="s">
-        <v>7282</v>
+        <v>7295</v>
       </c>
       <c r="C10" t="s">
         <v>7257</v>
       </c>
       <c r="D10" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7283</v>
+        <v>7296</v>
       </c>
       <c r="B11" t="s">
-        <v>7284</v>
+        <v>7297</v>
       </c>
       <c r="C11" t="s">
         <v>7260</v>
       </c>
       <c r="D11" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7285</v>
+        <v>7298</v>
       </c>
       <c r="B12" t="s">
-        <v>7273</v>
+        <v>7286</v>
       </c>
       <c r="C12" t="s">
         <v>7251</v>
       </c>
       <c r="D12" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7286</v>
+        <v>7299</v>
       </c>
       <c r="B13" t="s">
-        <v>7282</v>
+        <v>7295</v>
       </c>
       <c r="C13" t="s">
         <v>7245</v>
       </c>
       <c r="D13" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7287</v>
+        <v>7300</v>
       </c>
       <c r="B14" t="s">
-        <v>7288</v>
+        <v>7301</v>
       </c>
       <c r="C14" t="s">
         <v>7242</v>
       </c>
       <c r="D14" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7289</v>
+        <v>7302</v>
       </c>
       <c r="B15" t="s">
-        <v>7290</v>
+        <v>7303</v>
       </c>
       <c r="C15" t="s">
         <v>7254</v>
       </c>
       <c r="D15" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>7287</v>
+        <v>7300</v>
       </c>
       <c r="B16" t="s">
-        <v>7291</v>
+        <v>7304</v>
       </c>
       <c r="C16" t="s">
         <v>7254</v>
       </c>
       <c r="D16" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>7289</v>
+        <v>7302</v>
       </c>
       <c r="B17" t="s">
-        <v>7292</v>
+        <v>7305</v>
       </c>
       <c r="C17" t="s">
         <v>7248</v>
       </c>
       <c r="D17" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>7293</v>
+        <v>7306</v>
       </c>
       <c r="B18" t="s">
-        <v>7294</v>
+        <v>7307</v>
       </c>
       <c r="C18" t="s">
         <v>7263</v>
       </c>
       <c r="D18" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>7295</v>
+        <v>7308</v>
       </c>
       <c r="B19" t="s">
-        <v>7296</v>
+        <v>7309</v>
       </c>
       <c r="C19" t="s">
         <v>7242</v>
       </c>
       <c r="D19" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>7297</v>
+        <v>7310</v>
       </c>
       <c r="B20" t="s">
-        <v>7298</v>
+        <v>7311</v>
       </c>
       <c r="C20" t="s">
         <v>7245</v>
       </c>
       <c r="D20" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>7299</v>
+        <v>7312</v>
       </c>
       <c r="B21" t="s">
-        <v>7300</v>
+        <v>7313</v>
       </c>
       <c r="C21" t="s">
         <v>7245</v>
       </c>
       <c r="D21" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>7301</v>
+        <v>7314</v>
       </c>
       <c r="B22" t="s">
-        <v>7302</v>
+        <v>7315</v>
       </c>
       <c r="C22" t="s">
         <v>7254</v>
       </c>
       <c r="D22" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>7303</v>
+        <v>7316</v>
       </c>
       <c r="B23" t="s">
-        <v>7304</v>
+        <v>7317</v>
       </c>
       <c r="C23" t="s">
         <v>7242</v>
       </c>
       <c r="D23" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>7305</v>
+        <v>7318</v>
       </c>
       <c r="B24" t="s">
-        <v>7306</v>
+        <v>7319</v>
       </c>
       <c r="C24" t="s">
         <v>7257</v>
       </c>
       <c r="D24" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>7307</v>
+        <v>7320</v>
       </c>
       <c r="B25" t="s">
-        <v>7308</v>
+        <v>7321</v>
       </c>
       <c r="C25" t="s">
         <v>7263</v>
       </c>
       <c r="D25" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>7309</v>
+        <v>7322</v>
       </c>
       <c r="B26" t="s">
-        <v>7300</v>
+        <v>7313</v>
       </c>
       <c r="C26" t="s">
         <v>7251</v>
       </c>
       <c r="D26" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>7310</v>
+        <v>7323</v>
       </c>
       <c r="B27" t="s">
-        <v>7311</v>
+        <v>7324</v>
       </c>
       <c r="C27" t="s">
         <v>7257</v>
       </c>
       <c r="D27" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>7312</v>
+        <v>7325</v>
       </c>
       <c r="B28" t="s">
-        <v>7280</v>
+        <v>7293</v>
       </c>
       <c r="C28" t="s">
         <v>7260</v>
       </c>
       <c r="D28" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>7313</v>
+        <v>7326</v>
       </c>
       <c r="B29" t="s">
-        <v>7302</v>
+        <v>7315</v>
       </c>
       <c r="C29" t="s">
         <v>7257</v>
       </c>
       <c r="D29" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>7314</v>
+        <v>7327</v>
       </c>
       <c r="B30" t="s">
-        <v>7315</v>
+        <v>7328</v>
       </c>
       <c r="C30" t="s">
         <v>7263</v>
       </c>
       <c r="D30" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7316</v>
+        <v>7329</v>
       </c>
       <c r="B31" t="s">
-        <v>7317</v>
+        <v>7330</v>
       </c>
       <c r="C31" t="s">
         <v>7263</v>
       </c>
       <c r="D31" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>7318</v>
+        <v>7331</v>
       </c>
       <c r="B32" t="s">
-        <v>7315</v>
+        <v>7328</v>
       </c>
       <c r="C32" t="s">
         <v>7260</v>
       </c>
       <c r="D32" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>7319</v>
+        <v>7332</v>
       </c>
       <c r="B33" t="s">
-        <v>7282</v>
+        <v>7295</v>
       </c>
       <c r="C33" t="s">
         <v>7263</v>
       </c>
       <c r="D33" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>7320</v>
+        <v>7333</v>
       </c>
       <c r="B34" t="s">
-        <v>7321</v>
+        <v>7334</v>
       </c>
       <c r="C34" t="s">
         <v>7263</v>
       </c>
       <c r="D34" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>7322</v>
+        <v>7335</v>
       </c>
       <c r="B35" t="s">
-        <v>7296</v>
+        <v>7309</v>
       </c>
       <c r="C35" t="s">
         <v>7263</v>
       </c>
       <c r="D35" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>7323</v>
+        <v>7336</v>
       </c>
       <c r="B36" t="s">
-        <v>7280</v>
+        <v>7293</v>
       </c>
       <c r="C36" t="s">
         <v>7263</v>
       </c>
       <c r="D36" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>7324</v>
+        <v>7337</v>
       </c>
       <c r="B37" t="s">
-        <v>7270</v>
+        <v>7283</v>
       </c>
       <c r="C37" t="s">
         <v>7263</v>
       </c>
       <c r="D37" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>7325</v>
+        <v>7338</v>
       </c>
       <c r="B38" t="s">
-        <v>7326</v>
+        <v>7339</v>
       </c>
       <c r="C38" t="s">
         <v>7263</v>
       </c>
       <c r="D38" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>7327</v>
+        <v>7340</v>
       </c>
       <c r="B39" t="s">
-        <v>7328</v>
+        <v>7341</v>
       </c>
       <c r="C39" t="s">
         <v>7242</v>
       </c>
       <c r="D39" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>7330</v>
+        <v>7343</v>
       </c>
       <c r="B40" t="s">
-        <v>7315</v>
+        <v>7328</v>
       </c>
       <c r="C40" t="s">
         <v>7245</v>
       </c>
       <c r="D40" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>7331</v>
+        <v>7344</v>
       </c>
       <c r="B41" t="s">
-        <v>7315</v>
+        <v>7328</v>
       </c>
       <c r="C41" t="s">
         <v>7251</v>
       </c>
       <c r="D41" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>7332</v>
+        <v>7345</v>
       </c>
       <c r="B42" t="s">
-        <v>7326</v>
+        <v>7339</v>
       </c>
       <c r="C42" t="s">
         <v>7257</v>
       </c>
       <c r="D42" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>7333</v>
+        <v>7346</v>
       </c>
       <c r="B43" t="s">
-        <v>7334</v>
+        <v>7347</v>
       </c>
       <c r="C43" t="s">
         <v>7242</v>
       </c>
       <c r="D43" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>7335</v>
+        <v>7348</v>
       </c>
       <c r="B44" t="s">
-        <v>7302</v>
+        <v>7315</v>
       </c>
       <c r="C44" t="s">
         <v>7248</v>
       </c>
       <c r="D44" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>7336</v>
+        <v>7349</v>
       </c>
       <c r="B45" t="s">
-        <v>7274</v>
+        <v>7287</v>
       </c>
       <c r="C45" t="s">
         <v>7242</v>
       </c>
       <c r="D45" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>7337</v>
+        <v>7350</v>
       </c>
       <c r="B46" t="s">
-        <v>7338</v>
+        <v>7351</v>
       </c>
       <c r="C46" t="s">
         <v>7248</v>
       </c>
       <c r="D46" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>7339</v>
+        <v>7352</v>
       </c>
       <c r="B47" t="s">
-        <v>7291</v>
+        <v>7304</v>
       </c>
       <c r="C47" t="s">
         <v>7257</v>
       </c>
       <c r="D47" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>7340</v>
+        <v>7353</v>
       </c>
       <c r="B48" t="s">
-        <v>7341</v>
+        <v>7354</v>
       </c>
       <c r="C48" t="s">
         <v>7260</v>
       </c>
       <c r="D48" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>7340</v>
+        <v>7353</v>
       </c>
       <c r="B49" t="s">
-        <v>7308</v>
+        <v>7321</v>
       </c>
       <c r="C49" t="s">
         <v>7251</v>
       </c>
       <c r="D49" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>7340</v>
+        <v>7353</v>
       </c>
       <c r="B50" t="s">
-        <v>7315</v>
+        <v>7328</v>
       </c>
       <c r="C50" t="s">
         <v>7245</v>
       </c>
       <c r="D50" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>7340</v>
+        <v>7353</v>
       </c>
       <c r="B51" t="s">
-        <v>7342</v>
+        <v>7355</v>
       </c>
       <c r="C51" t="s">
         <v>7242</v>
       </c>
       <c r="D51" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>7343</v>
+        <v>7356</v>
       </c>
       <c r="B52" t="s">
-        <v>7321</v>
+        <v>7334</v>
       </c>
       <c r="C52" t="s">
         <v>7254</v>
       </c>
       <c r="D52" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>7344</v>
+        <v>7357</v>
       </c>
       <c r="B53" t="s">
-        <v>7280</v>
+        <v>7293</v>
       </c>
       <c r="C53" t="s">
         <v>7254</v>
       </c>
       <c r="D53" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>7344</v>
+        <v>7357</v>
       </c>
       <c r="B54" t="s">
-        <v>7345</v>
+        <v>7358</v>
       </c>
       <c r="C54" t="s">
         <v>7248</v>
       </c>
       <c r="D54" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>7344</v>
+        <v>7357</v>
       </c>
       <c r="B55" t="s">
-        <v>7273</v>
+        <v>7286</v>
       </c>
       <c r="C55" t="s">
         <v>7263</v>
       </c>
       <c r="D55" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>7344</v>
+        <v>7357</v>
       </c>
       <c r="B56" t="s">
-        <v>7311</v>
+        <v>7324</v>
       </c>
       <c r="C56" t="s">
         <v>7242</v>
       </c>
       <c r="D56" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>7346</v>
+        <v>7359</v>
       </c>
       <c r="B57" t="s">
-        <v>7347</v>
+        <v>7360</v>
       </c>
       <c r="C57" t="s">
         <v>7245</v>
       </c>
       <c r="D57" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>7348</v>
+        <v>7361</v>
       </c>
       <c r="B58" t="s">
-        <v>7349</v>
+        <v>7362</v>
       </c>
       <c r="C58" t="s">
         <v>7245</v>
       </c>
       <c r="D58" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>7350</v>
+        <v>7363</v>
       </c>
       <c r="B59" t="s">
-        <v>7351</v>
+        <v>7364</v>
       </c>
       <c r="C59" t="s">
         <v>7254</v>
       </c>
       <c r="D59" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>7352</v>
+        <v>7365</v>
       </c>
       <c r="B60" t="s">
-        <v>7294</v>
+        <v>7307</v>
       </c>
       <c r="C60" t="s">
         <v>7242</v>
       </c>
       <c r="D60" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>7353</v>
+        <v>7366</v>
       </c>
       <c r="B61" t="s">
-        <v>7354</v>
+        <v>7367</v>
       </c>
       <c r="C61" t="s">
         <v>7257</v>
       </c>
       <c r="D61" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>7355</v>
+        <v>7368</v>
       </c>
       <c r="B62" t="s">
-        <v>7356</v>
+        <v>7369</v>
       </c>
       <c r="C62" t="s">
         <v>7263</v>
       </c>
       <c r="D62" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>7355</v>
+        <v>7368</v>
       </c>
       <c r="B63" t="s">
-        <v>7357</v>
+        <v>7370</v>
       </c>
       <c r="C63" t="s">
         <v>7251</v>
       </c>
       <c r="D63" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>7355</v>
+        <v>7368</v>
       </c>
       <c r="B64" t="s">
-        <v>7280</v>
+        <v>7293</v>
       </c>
       <c r="C64" t="s">
         <v>7257</v>
       </c>
       <c r="D64" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>7358</v>
+        <v>7371</v>
       </c>
       <c r="B65" t="s">
-        <v>7273</v>
+        <v>7286</v>
       </c>
       <c r="C65" t="s">
         <v>7260</v>
       </c>
       <c r="D65" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>7359</v>
+        <v>7372</v>
       </c>
       <c r="B66" t="s">
-        <v>7321</v>
+        <v>7334</v>
       </c>
       <c r="C66" t="s">
         <v>7257</v>
       </c>
       <c r="D66" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>7360</v>
+        <v>7373</v>
       </c>
       <c r="B67" t="s">
-        <v>7294</v>
+        <v>7307</v>
       </c>
       <c r="C67" t="s">
         <v>7263</v>
       </c>
       <c r="D67" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>7361</v>
+        <v>7374</v>
       </c>
       <c r="B68" t="s">
-        <v>7356</v>
+        <v>7369</v>
       </c>
       <c r="C68" t="s">
         <v>7263</v>
       </c>
       <c r="D68" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>7361</v>
+        <v>7374</v>
       </c>
       <c r="B69" t="s">
-        <v>7362</v>
+        <v>7375</v>
       </c>
       <c r="C69" t="s">
         <v>7260</v>
       </c>
       <c r="D69" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>7363</v>
+        <v>7376</v>
       </c>
       <c r="B70" t="s">
-        <v>7347</v>
+        <v>7360</v>
       </c>
       <c r="C70" t="s">
         <v>7263</v>
       </c>
       <c r="D70" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>7364</v>
+        <v>7377</v>
       </c>
       <c r="B71" t="s">
-        <v>7365</v>
+        <v>7378</v>
       </c>
       <c r="C71" t="s">
         <v>7263</v>
       </c>
       <c r="D71" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>7366</v>
+        <v>7379</v>
       </c>
       <c r="B72" t="s">
-        <v>7347</v>
+        <v>7360</v>
       </c>
       <c r="C72" t="s">
         <v>7263</v>
       </c>
       <c r="D72" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>7367</v>
+        <v>7380</v>
       </c>
       <c r="B73" t="s">
-        <v>7300</v>
+        <v>7313</v>
       </c>
       <c r="C73" t="s">
         <v>7263</v>
       </c>
       <c r="D73" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>7368</v>
+        <v>7381</v>
       </c>
       <c r="B74" t="s">
-        <v>7369</v>
+        <v>7382</v>
       </c>
       <c r="C74" t="s">
         <v>7263</v>
       </c>
       <c r="D74" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>7370</v>
+        <v>7383</v>
       </c>
       <c r="B75" t="s">
-        <v>7371</v>
+        <v>7384</v>
       </c>
       <c r="C75" t="s">
         <v>7263</v>
       </c>
       <c r="D75" t="s">
-        <v>7329</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>7372</v>
+        <v>7385</v>
       </c>
       <c r="B76" t="s">
-        <v>7362</v>
+        <v>7375</v>
       </c>
       <c r="C76" t="s">
         <v>7242</v>
       </c>
       <c r="D76" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E76"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>7373</v>
+        <v>7386</v>
       </c>
       <c r="B77" t="s">
-        <v>7315</v>
+        <v>7328</v>
       </c>
       <c r="C77" t="s">
         <v>7245</v>
       </c>
       <c r="D77" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E77"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>7374</v>
+        <v>7387</v>
       </c>
       <c r="B78" t="s">
-        <v>7321</v>
+        <v>7334</v>
       </c>
       <c r="C78" t="s">
         <v>7251</v>
       </c>
       <c r="D78" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E78"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>7375</v>
+        <v>7388</v>
       </c>
       <c r="B79" t="s">
-        <v>7334</v>
+        <v>7347</v>
       </c>
       <c r="C79" t="s">
         <v>7257</v>
       </c>
       <c r="D79" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E79"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>7376</v>
+        <v>7389</v>
       </c>
       <c r="B80" t="s">
-        <v>7345</v>
+        <v>7358</v>
       </c>
       <c r="C80" t="s">
         <v>7242</v>
       </c>
       <c r="D80" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E80"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>7377</v>
+        <v>7390</v>
       </c>
       <c r="B81" t="s">
-        <v>7378</v>
+        <v>7391</v>
       </c>
       <c r="C81" t="s">
         <v>7248</v>
       </c>
       <c r="D81" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E81"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>7379</v>
+        <v>7392</v>
       </c>
       <c r="B82" t="s">
-        <v>7380</v>
+        <v>7393</v>
       </c>
       <c r="C82" t="s">
         <v>7242</v>
       </c>
       <c r="D82" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E82"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>7381</v>
+        <v>7394</v>
       </c>
       <c r="B83" t="s">
-        <v>7382</v>
+        <v>7395</v>
       </c>
       <c r="C83" t="s">
         <v>7248</v>
       </c>
       <c r="D83" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E83"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>7383</v>
+        <v>7396</v>
       </c>
       <c r="B84" t="s">
-        <v>7384</v>
+        <v>7397</v>
       </c>
       <c r="C84" t="s">
         <v>7257</v>
       </c>
       <c r="D84" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E84"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>7385</v>
+        <v>7398</v>
       </c>
       <c r="B85" t="s">
-        <v>7386</v>
+        <v>7399</v>
       </c>
       <c r="C85" t="s">
         <v>7260</v>
       </c>
       <c r="D85" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E85"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>7387</v>
+        <v>7400</v>
       </c>
       <c r="B86" t="s">
-        <v>7388</v>
+        <v>7401</v>
       </c>
       <c r="C86" t="s">
         <v>7251</v>
       </c>
       <c r="D86" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E86"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>7389</v>
+        <v>7402</v>
       </c>
       <c r="B87" t="s">
-        <v>7384</v>
+        <v>7397</v>
       </c>
       <c r="C87" t="s">
         <v>7245</v>
       </c>
       <c r="D87" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E87"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>7390</v>
+        <v>7403</v>
       </c>
       <c r="B88" t="s">
-        <v>7391</v>
+        <v>7404</v>
       </c>
       <c r="C88" t="s">
         <v>7242</v>
       </c>
       <c r="D88" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E88"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>7392</v>
+        <v>7405</v>
       </c>
       <c r="B89" t="s">
-        <v>7393</v>
+        <v>7406</v>
       </c>
       <c r="C89" t="s">
         <v>7254</v>
       </c>
       <c r="D89" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E89"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>7394</v>
+        <v>7407</v>
       </c>
       <c r="B90" t="s">
-        <v>7395</v>
+        <v>7408</v>
       </c>
       <c r="C90" t="s">
         <v>7254</v>
       </c>
       <c r="D90" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E90"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>7396</v>
+        <v>7409</v>
       </c>
       <c r="B91" t="s">
-        <v>7397</v>
+        <v>7410</v>
       </c>
       <c r="C91" t="s">
         <v>7248</v>
       </c>
       <c r="D91" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E91"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>7398</v>
+        <v>7411</v>
       </c>
       <c r="B92" t="s">
-        <v>7399</v>
+        <v>7412</v>
       </c>
       <c r="C92" t="s">
         <v>7263</v>
       </c>
       <c r="D92" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E92"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>7400</v>
+        <v>7413</v>
       </c>
       <c r="B93" t="s">
-        <v>7401</v>
+        <v>7414</v>
       </c>
       <c r="C93" t="s">
         <v>7242</v>
       </c>
       <c r="D93" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E93"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>7402</v>
+        <v>7415</v>
       </c>
       <c r="B94" t="s">
-        <v>7281</v>
+        <v>7294</v>
       </c>
       <c r="C94" t="s">
         <v>7245</v>
       </c>
       <c r="D94" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E94"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>7403</v>
+        <v>7416</v>
       </c>
       <c r="B95" t="s">
-        <v>7404</v>
+        <v>7417</v>
       </c>
       <c r="C95" t="s">
         <v>7245</v>
       </c>
       <c r="D95" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E95"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>7405</v>
+        <v>7418</v>
       </c>
       <c r="B96" t="s">
-        <v>7406</v>
+        <v>7419</v>
       </c>
       <c r="C96" t="s">
         <v>7254</v>
       </c>
       <c r="D96" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E96"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>7407</v>
+        <v>7420</v>
       </c>
       <c r="B97" t="s">
-        <v>7408</v>
+        <v>7421</v>
       </c>
       <c r="C97" t="s">
         <v>7242</v>
       </c>
       <c r="D97" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E97"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>7409</v>
+        <v>7422</v>
       </c>
       <c r="B98" t="s">
-        <v>7304</v>
+        <v>7317</v>
       </c>
       <c r="C98" t="s">
         <v>7257</v>
       </c>
       <c r="D98" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E98"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>7410</v>
+        <v>7423</v>
       </c>
       <c r="B99" t="s">
-        <v>7411</v>
+        <v>7424</v>
       </c>
       <c r="C99" t="s">
         <v>7263</v>
       </c>
       <c r="D99" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E99"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>7412</v>
+        <v>7425</v>
       </c>
       <c r="B100" t="s">
-        <v>7328</v>
+        <v>7341</v>
       </c>
       <c r="C100" t="s">
         <v>7251</v>
       </c>
       <c r="D100" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E100"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>7413</v>
+        <v>7426</v>
       </c>
       <c r="B101" t="s">
-        <v>7382</v>
+        <v>7395</v>
       </c>
       <c r="C101" t="s">
         <v>7257</v>
       </c>
       <c r="D101" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E101"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>7414</v>
+        <v>7427</v>
       </c>
       <c r="B102" t="s">
-        <v>7274</v>
+        <v>7287</v>
       </c>
       <c r="C102" t="s">
         <v>7260</v>
       </c>
       <c r="D102" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E102"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>7415</v>
+        <v>7428</v>
       </c>
       <c r="B103" t="s">
-        <v>7416</v>
+        <v>7429</v>
       </c>
       <c r="C103" t="s">
         <v>7257</v>
       </c>
       <c r="D103" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E103"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>7417</v>
+        <v>7430</v>
       </c>
       <c r="B104" t="s">
-        <v>7397</v>
+        <v>7410</v>
       </c>
       <c r="C104" t="s">
         <v>7263</v>
       </c>
       <c r="D104" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E104"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>7418</v>
+        <v>7431</v>
       </c>
       <c r="B105" t="s">
-        <v>7273</v>
+        <v>7286</v>
       </c>
       <c r="C105" t="s">
         <v>7263</v>
       </c>
       <c r="D105" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E105"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>7419</v>
+        <v>7432</v>
       </c>
       <c r="B106" t="s">
-        <v>7321</v>
+        <v>7334</v>
       </c>
       <c r="C106" t="s">
         <v>7260</v>
       </c>
       <c r="D106" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E106"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>7420</v>
+        <v>7433</v>
       </c>
       <c r="B107" t="s">
-        <v>7302</v>
+        <v>7315</v>
       </c>
       <c r="C107" t="s">
         <v>7263</v>
       </c>
       <c r="D107" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E107"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>7421</v>
+        <v>7434</v>
       </c>
       <c r="B108" t="s">
-        <v>7391</v>
+        <v>7404</v>
       </c>
       <c r="C108" t="s">
         <v>7263</v>
       </c>
       <c r="D108" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E108"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>7422</v>
+        <v>7435</v>
       </c>
       <c r="B109" t="s">
-        <v>7302</v>
+        <v>7315</v>
       </c>
       <c r="C109" t="s">
         <v>7263</v>
       </c>
       <c r="D109" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E109"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>7423</v>
+        <v>7436</v>
       </c>
       <c r="B110" t="s">
-        <v>7294</v>
+        <v>7307</v>
       </c>
       <c r="C110" t="s">
         <v>7263</v>
       </c>
       <c r="D110" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E110"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>7424</v>
+        <v>7437</v>
       </c>
       <c r="B111" t="s">
-        <v>7321</v>
+        <v>7334</v>
       </c>
       <c r="C111" t="s">
         <v>7263</v>
       </c>
       <c r="D111" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E111"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>7425</v>
+        <v>7438</v>
       </c>
       <c r="B112" t="s">
-        <v>7426</v>
+        <v>7439</v>
       </c>
       <c r="C112" t="s">
         <v>7263</v>
       </c>
       <c r="D112" t="s">
-        <v>7271</v>
+        <v>7284</v>
       </c>
       <c r="E112"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>7372</v>
+        <v>7385</v>
       </c>
       <c r="B113" t="s">
-        <v>7362</v>
+        <v>7375</v>
       </c>
       <c r="C113" t="s">
         <v>7242</v>
       </c>
       <c r="D113" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>7373</v>
+        <v>7386</v>
       </c>
       <c r="B114" t="s">
-        <v>7315</v>
+        <v>7328</v>
       </c>
       <c r="C114" t="s">
         <v>7245</v>
       </c>
       <c r="D114" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>7374</v>
+        <v>7387</v>
       </c>
       <c r="B115" t="s">
-        <v>7321</v>
+        <v>7334</v>
       </c>
       <c r="C115" t="s">
         <v>7251</v>
       </c>
       <c r="D115" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>7375</v>
+        <v>7388</v>
       </c>
       <c r="B116" t="s">
-        <v>7334</v>
+        <v>7347</v>
       </c>
       <c r="C116" t="s">
         <v>7257</v>
       </c>
       <c r="D116" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>7376</v>
+        <v>7389</v>
       </c>
       <c r="B117" t="s">
-        <v>7345</v>
+        <v>7358</v>
       </c>
       <c r="C117" t="s">
         <v>7242</v>
       </c>
       <c r="D117" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>7377</v>
+        <v>7390</v>
       </c>
       <c r="B118" t="s">
-        <v>7378</v>
+        <v>7391</v>
       </c>
       <c r="C118" t="s">
         <v>7248</v>
       </c>
       <c r="D118" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>7379</v>
+        <v>7392</v>
       </c>
       <c r="B119" t="s">
-        <v>7380</v>
+        <v>7393</v>
       </c>
       <c r="C119" t="s">
         <v>7242</v>
       </c>
       <c r="D119" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>7381</v>
+        <v>7394</v>
       </c>
       <c r="B120" t="s">
-        <v>7382</v>
+        <v>7395</v>
       </c>
       <c r="C120" t="s">
         <v>7248</v>
       </c>
       <c r="D120" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>7383</v>
+        <v>7396</v>
       </c>
       <c r="B121" t="s">
-        <v>7384</v>
+        <v>7397</v>
       </c>
       <c r="C121" t="s">
         <v>7257</v>
       </c>
       <c r="D121" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>7385</v>
+        <v>7398</v>
       </c>
       <c r="B122" t="s">
-        <v>7386</v>
+        <v>7399</v>
       </c>
       <c r="C122" t="s">
         <v>7260</v>
       </c>
       <c r="D122" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>7387</v>
+        <v>7400</v>
       </c>
       <c r="B123" t="s">
-        <v>7388</v>
+        <v>7401</v>
       </c>
       <c r="C123" t="s">
         <v>7251</v>
       </c>
       <c r="D123" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>7389</v>
+        <v>7402</v>
       </c>
       <c r="B124" t="s">
-        <v>7384</v>
+        <v>7397</v>
       </c>
       <c r="C124" t="s">
         <v>7245</v>
       </c>
       <c r="D124" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>7390</v>
+        <v>7403</v>
       </c>
       <c r="B125" t="s">
-        <v>7391</v>
+        <v>7404</v>
       </c>
       <c r="C125" t="s">
         <v>7242</v>
       </c>
       <c r="D125" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>7392</v>
+        <v>7405</v>
       </c>
       <c r="B126" t="s">
-        <v>7393</v>
+        <v>7406</v>
       </c>
       <c r="C126" t="s">
         <v>7254</v>
       </c>
       <c r="D126" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>7394</v>
+        <v>7407</v>
       </c>
       <c r="B127" t="s">
-        <v>7395</v>
+        <v>7408</v>
       </c>
       <c r="C127" t="s">
         <v>7254</v>
       </c>
       <c r="D127" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>7396</v>
+        <v>7409</v>
       </c>
       <c r="B128" t="s">
-        <v>7397</v>
+        <v>7410</v>
       </c>
       <c r="C128" t="s">
         <v>7248</v>
       </c>
       <c r="D128" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>7398</v>
+        <v>7411</v>
       </c>
       <c r="B129" t="s">
-        <v>7399</v>
+        <v>7412</v>
       </c>
       <c r="C129" t="s">
         <v>7263</v>
       </c>
       <c r="D129" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>7400</v>
+        <v>7413</v>
       </c>
       <c r="B130" t="s">
-        <v>7401</v>
+        <v>7414</v>
       </c>
       <c r="C130" t="s">
         <v>7242</v>
       </c>
       <c r="D130" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>7402</v>
+        <v>7415</v>
       </c>
       <c r="B131" t="s">
-        <v>7281</v>
+        <v>7294</v>
       </c>
       <c r="C131" t="s">
         <v>7245</v>
       </c>
       <c r="D131" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>7403</v>
+        <v>7416</v>
       </c>
       <c r="B132" t="s">
-        <v>7404</v>
+        <v>7417</v>
       </c>
       <c r="C132" t="s">
         <v>7245</v>
       </c>
       <c r="D132" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>7405</v>
+        <v>7418</v>
       </c>
       <c r="B133" t="s">
-        <v>7406</v>
+        <v>7419</v>
       </c>
       <c r="C133" t="s">
         <v>7254</v>
       </c>
       <c r="D133" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>7407</v>
+        <v>7420</v>
       </c>
       <c r="B134" t="s">
-        <v>7408</v>
+        <v>7421</v>
       </c>
       <c r="C134" t="s">
         <v>7242</v>
       </c>
       <c r="D134" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>7409</v>
+        <v>7422</v>
       </c>
       <c r="B135" t="s">
-        <v>7304</v>
+        <v>7317</v>
       </c>
       <c r="C135" t="s">
         <v>7257</v>
       </c>
       <c r="D135" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>7410</v>
+        <v>7423</v>
       </c>
       <c r="B136" t="s">
-        <v>7411</v>
+        <v>7424</v>
       </c>
       <c r="C136" t="s">
         <v>7263</v>
       </c>
       <c r="D136" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>7412</v>
+        <v>7425</v>
       </c>
       <c r="B137" t="s">
-        <v>7328</v>
+        <v>7341</v>
       </c>
       <c r="C137" t="s">
         <v>7251</v>
       </c>
       <c r="D137" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>7413</v>
+        <v>7426</v>
       </c>
       <c r="B138" t="s">
-        <v>7382</v>
+        <v>7395</v>
       </c>
       <c r="C138" t="s">
         <v>7257</v>
       </c>
       <c r="D138" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>7414</v>
+        <v>7427</v>
       </c>
       <c r="B139" t="s">
-        <v>7274</v>
+        <v>7287</v>
       </c>
       <c r="C139" t="s">
         <v>7260</v>
       </c>
       <c r="D139" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>7415</v>
+        <v>7428</v>
       </c>
       <c r="B140" t="s">
-        <v>7416</v>
+        <v>7429</v>
       </c>
       <c r="C140" t="s">
         <v>7257</v>
       </c>
       <c r="D140" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>7417</v>
+        <v>7430</v>
       </c>
       <c r="B141" t="s">
-        <v>7397</v>
+        <v>7410</v>
       </c>
       <c r="C141" t="s">
         <v>7263</v>
       </c>
       <c r="D141" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>7418</v>
+        <v>7431</v>
       </c>
       <c r="B142" t="s">
-        <v>7273</v>
+        <v>7286</v>
       </c>
       <c r="C142" t="s">
         <v>7263</v>
       </c>
       <c r="D142" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>7419</v>
+        <v>7432</v>
       </c>
       <c r="B143" t="s">
-        <v>7321</v>
+        <v>7334</v>
       </c>
       <c r="C143" t="s">
         <v>7260</v>
       </c>
       <c r="D143" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>7420</v>
+        <v>7433</v>
       </c>
       <c r="B144" t="s">
-        <v>7302</v>
+        <v>7315</v>
       </c>
       <c r="C144" t="s">
         <v>7263</v>
       </c>
       <c r="D144" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>7421</v>
+        <v>7434</v>
       </c>
       <c r="B145" t="s">
-        <v>7391</v>
+        <v>7404</v>
       </c>
       <c r="C145" t="s">
         <v>7263</v>
       </c>
       <c r="D145" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>7422</v>
+        <v>7435</v>
       </c>
       <c r="B146" t="s">
-        <v>7302</v>
+        <v>7315</v>
       </c>
       <c r="C146" t="s">
         <v>7263</v>
       </c>
       <c r="D146" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>7423</v>
+        <v>7436</v>
       </c>
       <c r="B147" t="s">
-        <v>7294</v>
+        <v>7307</v>
       </c>
       <c r="C147" t="s">
         <v>7263</v>
       </c>
       <c r="D147" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>7424</v>
+        <v>7437</v>
       </c>
       <c r="B148" t="s">
-        <v>7321</v>
+        <v>7334</v>
       </c>
       <c r="C148" t="s">
         <v>7263</v>
       </c>
       <c r="D148" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>7425</v>
+        <v>7438</v>
       </c>
       <c r="B149" t="s">
-        <v>7426</v>
+        <v>7439</v>
       </c>
       <c r="C149" t="s">
         <v>7263</v>
       </c>
       <c r="D149" t="s">
-        <v>7427</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -50752,7 +53708,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1581911735" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1581923393" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -50761,16 +53717,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1581911735" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1581911735" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581911735" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581911735" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581911735" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581923393" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/assets/data/books.xlsx
+++ b/assets/data/books.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="teisha"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId4"/>
@@ -16,17 +16,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1581923393" val="973" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1581923393" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1581923393" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1581923393"/>
+      <pm:revision xmlns:pm="smNativeData" day="1581998596" val="973" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1581998596" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1581998596" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1581998596"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8635" uniqueCount="7441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8636" uniqueCount="7441">
   <si>
     <t>asin</t>
   </si>
@@ -22925,7 +22925,7 @@
     <t>asin</t>
   </si>
   <si>
-    <t>purchase_date</t>
+    <t>date</t>
   </si>
   <si>
     <t>B00R1WA92O</t>
@@ -23402,7 +23402,7 @@
     <t>07-27-15</t>
   </si>
   <si>
-    <t>READ</t>
+    <t>LISTENED</t>
   </si>
 </sst>
 </file>
@@ -23427,7 +23427,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581923393" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1581998596" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -23442,7 +23442,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581923393" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1581998596" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -23464,7 +23464,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1581923393" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1581998596" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -23486,7 +23486,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1581923393"/>
+          <pm:border xmlns:pm="smNativeData" id="1581998596"/>
         </ext>
       </extLst>
     </border>
@@ -23505,7 +23505,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1581923393"/>
+          <pm:border xmlns:pm="smNativeData" id="1581998596"/>
         </ext>
       </extLst>
     </border>
@@ -23522,7 +23522,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1581923393" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1581998596" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -23788,8 +23788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O595"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="E284" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57:I305"/>
+    <sheetView view="normal" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -46706,7 +46706,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1581923393" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1581998596" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -46715,16 +46715,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1581998596" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1581998596" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581998596" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581998596" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581923393" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581998596" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -46876,7 +46876,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1581923393" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1581998596" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -46885,16 +46885,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1581998596" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1581998596" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581998596" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581998596" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581923393" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581998596" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -46907,7 +46907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
+    <sheetView view="normal" zoomScale="90" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -49758,7 +49758,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1581923393" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1581998596" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -49767,16 +49767,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1581998596" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1581998596" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581998596" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581998596" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581923393" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581998596" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -49789,8 +49789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E595"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="16.60"/>
@@ -49800,7 +49800,7 @@
     <col min="4" max="4" width="11.721311" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7280</v>
       </c>
@@ -49808,7 +49808,10 @@
         <v>7281</v>
       </c>
       <c r="C1" t="s">
-        <v>7266</v>
+        <v>7238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7267</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -53708,7 +53711,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1581923393" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1581998596" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -53717,16 +53720,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1581923393" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581923393" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1581998596" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1581998596" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581998596" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581998596" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581923393" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581998596" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
